--- a/biology/Botanique/Allium_longifolium/Allium_longifolium.xlsx
+++ b/biology/Botanique/Allium_longifolium/Allium_longifolium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Allium longifolium est une espèce de plantes à fleurs de la famille des Amaryllidacées
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une plante herbacée vivace avec de 2 à 5 feuilles de 10 à 21 cm de long et une ou plusieurs hampes florales de 15 à 30 cm de haut à partir d'un bulbe souterrain. La plante se divise, formant avec le temps une grappe de plantes. Les petits bulbes sont généralement de moins de 2 cm de diamètre. Sa fécondation est entomophile[1]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une plante herbacée vivace avec de 2 à 5 feuilles de 10 à 21 cm de long et une ou plusieurs hampes florales de 15 à 30 cm de haut à partir d'un bulbe souterrain. La plante se divise, formant avec le temps une grappe de plantes. Les petits bulbes sont généralement de moins de 2 cm de diamètre. Sa fécondation est entomophile
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Localisation et Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle est présente dans le sud-ouest de l'Amérique du Nord, l'Arizona, le Nouveau-Mexique, le Texas jusqu'au sud du Mexique.
-Elle est adaptée aux collines et montagnes sèches et rocheuses, généralement dans des sols calcaires; à des altitudes de 700 à 3 000 mètres[1].
+Elle est adaptée aux collines et montagnes sèches et rocheuses, généralement dans des sols calcaires; à des altitudes de 700 à 3 000 mètres.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La plante est récoltée dans la nature pour une utilisation locale comme aliment. La plante a été à la fois semi-cultivée et cultivée dans les jardins au Mexique
 </t>
@@ -605,9 +623,11 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Allium longifolium étant originaire d'une région aux étés chauds et secs et aux hivers frais et humides, i peut tolérer des températures hivernales tombant occasionnellement entre -5 et -10°c. Par contre, il supporte mal les étés humides. On préfère un emplacement ensoleillé dans un sol léger et bien drainé. Les bulbes doivent être plantés assez profondément[1] .
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Allium longifolium étant originaire d'une région aux étés chauds et secs et aux hivers frais et humides, i peut tolérer des températures hivernales tombant occasionnellement entre -5 et -10°c. Par contre, il supporte mal les étés humides. On préfère un emplacement ensoleillé dans un sol léger et bien drainé. Les bulbes doivent être plantés assez profondément .
 Utilisations com
 </t>
         </is>
@@ -637,9 +657,11 @@
           <t>Consommation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les bulbe peuvent être utilisés crus ou cuits  pour leur arome. Les feuilles peuvent également être consommées crues ou cuites. Les fleurs crues sont utilisées comme garniture sur les salades[1]
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les bulbe peuvent être utilisés crus ou cuits  pour leur arome. Les feuilles peuvent également être consommées crues ou cuites. Les fleurs crues sont utilisées comme garniture sur les salades
 </t>
         </is>
       </c>
